--- a/TestCases/Back End/ReadMyAssessments-BackEnd-Director.xlsx
+++ b/TestCases/Back End/ReadMyAssessments-BackEnd-Director.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18801"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{A7B85D84-B769-4904-92B3-B5C8D0893DF1}" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{54F18E38-0DF0-4BB7-A63C-49A09FBA6F42}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{A7B85D84-B769-4904-92B3-B5C8D0893DF1}" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{ED5FA63B-5D38-476B-906C-AAEBFE217DD2}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Role: Director</t>
   </si>
@@ -35,22 +35,34 @@
     <t>Pass/Fail</t>
   </si>
   <si>
-    <t>Step 1: While logged out try to view My Assessments</t>
+    <t>Step 1: while logged out try to enter the "my assessments" page</t>
   </si>
   <si>
     <t>I am returned to the login screen</t>
   </si>
   <si>
-    <t xml:space="preserve">Step 2: Log in and from the dashboard Click on "My Assessments" </t>
-  </si>
-  <si>
-    <t>I am redirected to a page showing all my assessments</t>
-  </si>
-  <si>
-    <t>Step 3: While Logged in, try to view someone else's assessments</t>
-  </si>
-  <si>
-    <t>I am denied access to this</t>
+    <t>Step 2: Login as a user with the correct role</t>
+  </si>
+  <si>
+    <t>I am redirected to the dashboard of the user</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Step 3: Click "My Assessments" </t>
+  </si>
+  <si>
+    <t>I am showed a list of assessments all based around me</t>
+  </si>
+  <si>
+    <t>Step 4: From the url view a list of someone elses assessments</t>
+  </si>
+  <si>
+    <t>I am redirected to a list of my assessments(I should not be able to see a list of other people's assessments)</t>
+  </si>
+  <si>
+    <t>Step 5: From the url change the myassessments id to nothing</t>
+  </si>
+  <si>
+    <t>Redirected to a page saying access denied</t>
   </si>
 </sst>
 </file>
@@ -400,7 +412,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="C2" sqref="C2:D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -457,8 +471,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="58.5" customHeight="1"/>
-    <row r="6" spans="1:6" ht="60.75" customHeight="1"/>
+    <row r="5" spans="1:6" ht="58.5" customHeight="1">
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="60.75" customHeight="1">
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="7" spans="1:6" ht="60.75" customHeight="1">
       <c r="F7" s="2"/>
     </row>
